--- a/Template.xlsx
+++ b/Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://groupesalins-my.sharepoint.com/personal/caban_gu_salins_com/Documents/Documents/UiPath/ComptaRecap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://groupesalins-my.sharepoint.com/personal/caban_gu_salins_com/Documents/Documents/UiPath/BlankProcessComptaRecap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="11_F25DC773A252ABDACC10488D115C50905BDE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A92C79D7-B30D-452A-A70A-34DF3B1D6D8C}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="11_F25DC773A252ABDACC10488D115C50905BDE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94DEE027-526C-4E55-8039-3390DC797158}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Société Juridique</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Etablissement</t>
+  </si>
+  <si>
+    <t>Société</t>
   </si>
 </sst>
 </file>
@@ -119,13 +122,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,10 +421,9 @@
     <col min="4" max="4" width="26.33203125" style="3" customWidth="1"/>
     <col min="5" max="6" width="17.33203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -445,13 +445,16 @@
       <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
